--- a/doors-detector/results/house13_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house13_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7168764124273427</v>
+        <v>0.7095134835143643</v>
       </c>
       <c r="F2" t="n">
         <v>620</v>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H2" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6073129181899743</v>
+        <v>0.5796468143320426</v>
       </c>
       <c r="F3" t="n">
         <v>83</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5956565362780974</v>
+        <v>0.5896625578284805</v>
       </c>
       <c r="F4" t="n">
         <v>69</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.719791128455865</v>
+        <v>0.7514694902562442</v>
       </c>
       <c r="F5" t="n">
         <v>620</v>
       </c>
       <c r="G5" t="n">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="H5" t="n">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6427616994288234</v>
+        <v>0.6734376104481243</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5582967448244862</v>
+        <v>0.6903557546331899</v>
       </c>
       <c r="F7" t="n">
         <v>69</v>
       </c>
       <c r="G7" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7152660571464194</v>
+        <v>0.7937745014914137</v>
       </c>
       <c r="F8" t="n">
         <v>620</v>
       </c>
       <c r="G8" t="n">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="H8" t="n">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6873838779043548</v>
+        <v>0.7219559222162475</v>
       </c>
       <c r="F9" t="n">
         <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H9" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7334346323729558</v>
+        <v>0.7328548523280396</v>
       </c>
       <c r="F10" t="n">
         <v>69</v>
@@ -760,7 +760,7 @@
         <v>61</v>
       </c>
       <c r="H10" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7599986548756231</v>
+        <v>0.8005859610873008</v>
       </c>
       <c r="F11" t="n">
         <v>620</v>
       </c>
       <c r="G11" t="n">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H11" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7162867344337134</v>
+        <v>0.7458892411029863</v>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H12" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6589643247259629</v>
+        <v>0.6713183212603525</v>
       </c>
       <c r="F13" t="n">
         <v>69</v>
       </c>
       <c r="G13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7509460177821013</v>
+        <v>0.8006331922200373</v>
       </c>
       <c r="F14" t="n">
         <v>620</v>
       </c>
       <c r="G14" t="n">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="H14" t="n">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7217232377303832</v>
+        <v>0.7689726424561014</v>
       </c>
       <c r="F15" t="n">
         <v>83</v>
@@ -920,7 +920,7 @@
         <v>72</v>
       </c>
       <c r="H15" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7106484581810349</v>
+        <v>0.7285391954024756</v>
       </c>
       <c r="F16" t="n">
         <v>69</v>
       </c>
       <c r="G16" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H16" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7550761512912315</v>
+        <v>0.8037175905468852</v>
       </c>
       <c r="F17" t="n">
         <v>620</v>
       </c>
       <c r="G17" t="n">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="H17" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7953316936455395</v>
+        <v>0.7945800308729057</v>
       </c>
       <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7142893694865544</v>
+        <v>0.7457863261799199</v>
       </c>
       <c r="F19" t="n">
         <v>69</v>
       </c>
       <c r="G19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" t="n">
         <v>70</v>
